--- a/tests/unit_tests/results/test_nea.xlsx
+++ b/tests/unit_tests/results/test_nea.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -3572,7 +3572,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -5962,7 +5962,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:45</t>
+          <t>2020-09-05 18:45:45</t>
         </is>
       </c>
     </row>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -7258,7 +7258,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -10930,7 +10930,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -11329,7 +11329,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -11728,7 +11728,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -12127,7 +12127,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:47</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -12545,7 +12545,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -12784,7 +12784,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -13023,7 +13023,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -13262,7 +13262,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -13740,7 +13740,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -14696,7 +14696,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -14935,7 +14935,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -15174,7 +15174,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -15652,7 +15652,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -15891,7 +15891,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -16130,7 +16130,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -16369,7 +16369,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -16847,7 +16847,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -17086,7 +17086,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -17325,7 +17325,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -17564,7 +17564,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -18042,7 +18042,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:46</t>
+          <t>2020-09-05 18:45:46</t>
         </is>
       </c>
     </row>
@@ -18300,7 +18300,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -18801,7 +18801,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -19302,7 +19302,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -19803,7 +19803,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -20805,7 +20805,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -21306,7 +21306,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -21807,7 +21807,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -22809,7 +22809,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -23310,7 +23310,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -23811,7 +23811,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -24312,7 +24312,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -24813,7 +24813,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -25314,7 +25314,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -25815,7 +25815,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -26316,7 +26316,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -26817,7 +26817,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -27318,7 +27318,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -28199,7 +28199,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -29080,7 +29080,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -29961,7 +29961,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -30842,7 +30842,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:47</t>
         </is>
       </c>
     </row>
@@ -31723,7 +31723,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -33485,7 +33485,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -34366,7 +34366,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -35247,7 +35247,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -36128,7 +36128,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -37009,7 +37009,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -37890,7 +37890,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -38771,7 +38771,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -39652,7 +39652,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -40533,7 +40533,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -41414,7 +41414,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -42295,7 +42295,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -43176,7 +43176,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -44057,7 +44057,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -44938,7 +44938,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -45819,7 +45819,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -46700,7 +46700,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
@@ -47581,7 +47581,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>2020-09-05 06:41:48</t>
+          <t>2020-09-05 18:45:48</t>
         </is>
       </c>
     </row>
